--- a/biology/Biochimie/Pompe_sodium-potassium/Pompe_sodium-potassium.xlsx
+++ b/biology/Biochimie/Pompe_sodium-potassium/Pompe_sodium-potassium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pompe sodium-potassium ou Na+-K+ ATPase est une protéine transmembranaire hétérotétramère dont l'activité enzymatique utilise l'énergie issue de la dégradation de l'ATP en ADP et phosphate inorganique pour transporter des ions potassium et sodium contre leur gradient de concentration. Elle joue un rôle dans le maintien du potentiel de repos des cellules nerveuses, musculaires et cardiaques. Cette pompe électrogénique permet d'échanger les ions sodium (Na+) issus du milieu intracellulaire avec les ions potassium (K+) issus du milieu extracellulaire dans un rapport précis (3 Na+/2 K+). Cette pompe est responsable du rétablissement de l'équilibre initial après un potentiel d'action.
 La digoxine et l'ouabaïne ou strophanthine bloquent la pompe sodium. La digitaline et palytoxine ont le même effet. Cette pompe est présente sur tous les types de cellules. Un arrêt de son activité n'est pas compatible avec la survie cellulaire.
-Cette protéine consomme 20 % de l'énergie (ATP) des astrocytes[1].
+Cette protéine consomme 20 % de l'énergie (ATP) des astrocytes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom est Na+-K+ ATPase. On la désigne parfois comme pompe à sodium car elle a d'abord été caractérisée comme responsable du transport actif de sodium. Une autre façon de la nommer est pompe à Na+-K+ ou pompe à Na+/K+.
 </t>
@@ -544,9 +558,11 @@
           <t>Rôle physiologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pompe sodium joue un rôle essentiel dans le maintien d'un potentiel électrochimique de membrane, lequel constitue la force motrice pour le transport secondaire de molécules "entraînées" à travers des transporteurs membranaires secondaires ( cotransporteurs ou échangeurs). Le courant potassique "de fuite" définit quant à lui le potentiel de membrane. Et, dans les cellules excitables, ce potentiel électrochimique permet le déclenchement de potentiel d'action et de potentiel postsynaptique qui sont les éléments unitaires de la signalisation neuronale. Certaines évaluations estiment que l'énergie consommée par les pompes sodium pour maintenir le potentiel électrochimique pendant l'activité des neurones représente la moitié de l'énergie consommée par le cerveau, lequel représente 20 % du métabolisme au repos[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pompe sodium joue un rôle essentiel dans le maintien d'un potentiel électrochimique de membrane, lequel constitue la force motrice pour le transport secondaire de molécules "entraînées" à travers des transporteurs membranaires secondaires ( cotransporteurs ou échangeurs). Le courant potassique "de fuite" définit quant à lui le potentiel de membrane. Et, dans les cellules excitables, ce potentiel électrochimique permet le déclenchement de potentiel d'action et de potentiel postsynaptique qui sont les éléments unitaires de la signalisation neuronale. Certaines évaluations estiment que l'énergie consommée par les pompes sodium pour maintenir le potentiel électrochimique pendant l'activité des neurones représente la moitié de l'énergie consommée par le cerveau, lequel représente 20 % du métabolisme au repos.
 Cette pompe permet aussi le maintien du volume de la cellule. Celui-ci dépend de l'hydratation de la cellule.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La pompe sodium est composée de plusieurs sous-unités :
 la sous-unité 
@@ -618,7 +636,9 @@
           <t>Mécanisme catalytique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pompe sodium appartient à la famille des ATPases de type P, qui sont caractérisées par leur capacité à transporter des ions à travers la membrane en utilisant l'énergie de la dégradation d'un ATP.
 Le mécanisme de transport actif d'ion par les ATPases de type P s'explique par l'alternance de deux états conformationnels et l'existence de plusieurs équilibres d'affinité entre les espèces ioniques, l'ATP et la pompe dans ses deux états.
